--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\New folder\TruaNgay18\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDAFD32-529D-4DC0-9305-CD4A17203572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7505800F-7ACF-47BC-91E5-BD001C98AA55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name="9" sheetId="6" r:id="rId14"/>
     <sheet name="10" sheetId="3" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="757">
   <si>
     <t>nActi</t>
   </si>
@@ -1692,52 +1691,13 @@
     <t>Trả lời câu hỏi sau.</t>
   </si>
   <si>
-    <t>Nguyên tắc khi dùng đồng hồ VOM với thang đo VOLT trong mạch điện là ?</t>
-  </si>
-  <si>
-    <t>Dùng đồng hồ nối tiếp với mạch</t>
-  </si>
-  <si>
-    <t>Dùng đồng hồ song song với mạch</t>
-  </si>
-  <si>
-    <t>Nguyên tắc khi dùng đồng hồ VOM với thang đo AMPE trong mạch là?</t>
-  </si>
-  <si>
     <t>Hiển thị vid</t>
   </si>
   <si>
-    <t>Nguyên tắc khi dùng đồng hồ VOM với thang đo OHM trong mạch là?</t>
-  </si>
-  <si>
-    <t>Đấu mạch 3 điện trở nối tiếp như hình vẽ. Lần lượt đo điện áp giữa B, D, F so với GND.</t>
-  </si>
-  <si>
-    <t>Điện áp 12V của nguồn trừ đi điện áp giữa F so với GND</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>Phần mềm vừa tạo một lỗi cho mạch. Hãy lần lượt đo điện áp giữa 3 điểm B, D, F so với GND, sau đó đo dòng điện chạy qua mạch để nhận biết hiện tượng.</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm F so với GND là ?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm B so với GND là ?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm D so với GND là ?</t>
-  </si>
-  <si>
-    <t>Bây giờ hãy ngắt kết nối dây tại B, sau đó đo điện áp tại điểm B so với GND</t>
-  </si>
-  <si>
     <t>Giá trị điện áp đo được là ?</t>
-  </si>
-  <si>
-    <t>Khi có lỗi HỞ MẠCH, không có dòng điện chạy trong mạch và các thành phần trong mạch sẽ không có điện áp rơi tại đó.</t>
   </si>
   <si>
     <t>Nối lại dây tại điểm B. Trả lời câu hỏi, sau đó hãy kiểm tra câu trả lời của bạn bằng cách dùng đồng hồ với thang đo OHM.
@@ -1779,43 +1739,6 @@
     <t>Khi mạch hoạt động với lỗi xuất hiện điện trở không mong muốn, nơi xuất hiện lỗi này là nơi có …. so với thông thường.</t>
   </si>
   <si>
-    <t>Cường độ dòng điện đo được là? 
-Lưu ý: các đáp án đều được làm tròn, hãy chọn đáp án gần đúng nhất.</t>
-  </si>
-  <si>
-    <t>0.14A</t>
-  </si>
-  <si>
-    <t>0.02A</t>
-  </si>
-  <si>
-    <t>0.12A</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm I và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm G và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm H và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm F và GND.</t>
-  </si>
-  <si>
-    <t>2V</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm D và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm B và GND.</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi cho mạch. Đo điện áp và cường độ dòng qua mạch để xác định lỗi.</t>
-  </si>
-  <si>
     <t>Lỗi hiện tại là?</t>
   </si>
   <si>
@@ -1829,12 +1752,6 @@
   </si>
   <si>
     <t>fault13</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi cho mạch. Đo điện áp và cường độ dòng điện qua mạch để xác định lỗi.</t>
   </si>
   <si>
     <t>fault10</t>
@@ -1850,27 +1767,6 @@
 Trên mạch, GND được sắp xếp chạy dọc cạnh dưới, đại diện cho sườn xe ngoài thực tế. Nhiều quy trình chẩn đoán, bao gồm cả đo lường điện áp với cực âm của volt kế được kết nối vào sườn xe.</t>
   </si>
   <si>
-    <t>Ngắt dây tại điểm D. Nhấn công tắc để vận hành mạch. Quan sát hiện tượng và trả lời câu hỏi.</t>
-  </si>
-  <si>
-    <t>Khi có hở mạch tại cuộn dây relay, mạch hoạt động như thế nào?</t>
-  </si>
-  <si>
-    <t>Relay chuyển tiếp điểm nhưng còi không kêu.</t>
-  </si>
-  <si>
-    <t>Relay chuyển tiếp điểm, còi hoạt động bình thường</t>
-  </si>
-  <si>
-    <t>Relay không chuyển tiếp điểm, còi không kêu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nối lại dây tại điểm D, sau đó ngắt dây tại điểm G. Nhấn công tắc để vận hành mạch, quan sát hiện tượng và trả lời câu hỏi. </t>
-  </si>
-  <si>
-    <t>Khi có hở mạch tại còi, mạch hoạt động như thế nào?</t>
-  </si>
-  <si>
     <t>Qua 2 trường hợp trên:
 - Khi có hở mạch trên nhánh mạch điều khiển của relay (cuộn dây relay) mạch sẽ không hoạt động khi nhấn công tắc.
 - Khi có hở mạch trên nhánh mạch tải (còi) tiếp điểm của relay vẫn chuyển vì nhánh mạch này bình thường, nhưng nhánh mạch tải sẽ không hoạt động.</t>
@@ -1962,62 +1858,6 @@
     <t>fault 22</t>
   </si>
   <si>
-    <t>Hiển thị vide</t>
-  </si>
-  <si>
-    <t>Công tắc được dùng trong mạch điều khiển còi là loại công tắc nào ?</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 1 điểm</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 2 điểm</t>
-  </si>
-  <si>
-    <t>Nút nhấn</t>
-  </si>
-  <si>
-    <t>Các loại công tắc nào được dùng trong mô hình thực tập này?</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 1 tiếp điểm / Công tắc 1 cực - 2 tiếp điểm / Nút nhấn</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 2 tiếp điểm / Công tắc 1 cực – nhiều tiếp điểm / Nút nhấn</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 1 tiếp điểm / Công tắc 1 cực – nhiều tiếp điểm / Nút nhấn</t>
-  </si>
-  <si>
-    <t>Ngắt dây tại điểm D. Lúc này, mạch có lỗi hở tại công tắc số 10. 
-Với những kiểm tra lỗi hở trên đường dây, hoặc tại những linh kiện điều khiển như công tắc, chúng ta có 3 cách để kiểm tra:
-- Dùng đồng hồ thang đo VOLT khi mạch đang hoạt động.
-- Dùng đồng hồ thang đo OHM khi mạch ngắt nguồn.
-- Dùng phương pháp nối tắt dây.</t>
-  </si>
-  <si>
-    <t>Nối lại dây tại điểm D. Phần mềm vừa tạo một lỗi hở mạch. Gạt công tắc để vận hành mạch và quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Lỗi trên là lỗi hở mạch tại đèn #15.
-Trên thực tế, lỗi hở mạch không chỉ xảy ra tại các đường dây hay công tắc mà những loại tải như đèn, motor cũng có thể bị đứt. Vì vậy, khi kiểm tra mạch ngoài thực tế, chúng ta cần tháo các linh kiện khỏi mạch và kiểm tra xem chúng còn hoạt động tốt hay không.</t>
-  </si>
-  <si>
-    <t>Nếu kiểm tra chất lượng của linh kiện còn hoạt động được hay không, chúng ta phải dùng đồng hồ với thang đo nào?</t>
-  </si>
-  <si>
-    <t>Volt</t>
-  </si>
-  <si>
-    <t>Ampe</t>
-  </si>
-  <si>
-    <t>Ohm</t>
-  </si>
-  <si>
     <t>Khi kiểm tra bô bin đánh lửa hay các dây dẫn cao áp, chúng ta chỉ nên kiểm tra với đồng hồ thang đo OHM khi đã ngắt nguồn. Vì sao?</t>
   </si>
   <si>
@@ -2035,12 +1875,6 @@
 Có thể dùng đồng hồ thang đo OHM để xác định vị trí lỗi. Ngoài ra, chúng ta có thể dùng khả năng của cầu chì ngắt để kiểm tra mạch.</t>
   </si>
   <si>
-    <t>Cho mạch hoạt động và đo điện áp rơi tại 4 bóng đèn</t>
-  </si>
-  <si>
-    <t>Giá trị điện áp tại 4 đèn là như nhau, giá trị này bằng bao nhiêu ?</t>
-  </si>
-  <si>
     <t>Với cùng 1 điện áp đặt vào đèn hậu và đèn phanh, nhưng đèn phanh sáng rõ hơn đèn hậu. Lí do có sự khác biệt này ?</t>
   </si>
   <si>
@@ -2166,39 +2000,12 @@
     <t>Mô hình thực tập mô phỏng mạch đèn báo rẽ phía bên trái của xe. Nút nhấn số 2 tượng trưng cho bộ chớp (Flasher) trên xe.</t>
   </si>
   <si>
-    <t>\\Resources\\tong hop final wiring\\c3.png</t>
-  </si>
-  <si>
-    <t>Đây là mạch còi trên các xe ô tô. Công tắc số 17 tượng trưng cho công tắc còi trên vô lăng, khi nhấn giữ, còi sẽ kêu.</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c4.png</t>
-  </si>
-  <si>
-    <t>Gạt công tắc số 10 để vận hành mạch</t>
-  </si>
-  <si>
     <t>Tạo lỗi nối tắt GND bằng cách nối thêm một dây từ điểm C về GND như hình vẽ. Lúc này, các tải phía sau điểm C sẽ được bỏ qua. Vì vậy, không có dòng điện đi từ D về GND, nhưng dòng điện từ C về GND sẽ tăng. Khi xảy ra lỗi này trong mạch, cầu chì trong mạch sẽ dễ bị cháy vì dòng điện tăng quá mức giới hạn.</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti8.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti11.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti15.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti19.PNG</t>
   </si>
   <si>
@@ -2211,42 +2018,9 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti24.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti10.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti11.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti12.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti3.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti4.PNG</t>
   </si>
   <si>
@@ -2277,12 +2051,6 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti19.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti5.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti6.PNG</t>
   </si>
   <si>
@@ -2298,12 +2066,6 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti14.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti3.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti5.PNG</t>
   </si>
   <si>
@@ -2320,15 +2082,6 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti8.PNG</t>
-  </si>
-  <si>
-    <t>Đo cường độ dòng điện đi qua CD.</t>
-  </si>
-  <si>
-    <t>Đo cường độ dòng điện đi qua BH.</t>
-  </si>
-  <si>
-    <t>Đo cường độ dòng điện đi qua AB.</t>
   </si>
   <si>
     <t>Đèn phanh có điện trở cao hơn</t>
@@ -2384,21 +2137,6 @@
   <si>
     <t>Giả sử dây nối tại D không bị ngắt. Dựa vào hiện tượng mạch vừa quan sát, hãy suy luận và dùng đồng hồ thang đo OHM để xác định vị trí lỗi.
 CHÚ Ý: Dùng đồng hồ thang đo OHM phải ngắt nguồn.</t>
-  </si>
-  <si>
-    <t>Ngắt nguồn trước khi sử dụng</t>
-  </si>
-  <si>
-    <t>Đèn hậu được điều khiển bởi công tắc đèn đầu. Trong mô hình thực tập, đèn hậu được điều khiển bởi công tắc 3 vị trí tương ứng với 3 vị trí của công tắc đèn đầu trên xe là: OFF, PARK, HEADLIGHT. Khi công tắc ở vị trí PARK hay HEADLIGHT thì đèn hậu đều sáng.</t>
-  </si>
-  <si>
-    <t>Từ 3 giá trị vừa đo được, điện áp rơi trên điện trở số 4 (2 đầu D – E) sẽ được tính bằng cách nào?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa D so với GND trừ đi điện áp giữa F so với GND</t>
-  </si>
-  <si>
-    <t>Cộng 2 điện áp giữa D so với GND và F so với GND</t>
   </si>
   <si>
     <t>Dựa vào những giá trị điện trở đo được, bạn hãy xác định vị trí xảy ra hở mạch?</t>
@@ -2424,6 +2162,12 @@
   </si>
   <si>
     <t>Đáp án D</t>
+  </si>
+  <si>
+    <t>nhu cc</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\1.PNG</t>
   </si>
   <si>
     <r>
@@ -2434,7 +2178,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>A.CÁC CẢM BIẾN CHÍNH</t>
+      <t>A. Các cảm biến chính:</t>
     </r>
     <r>
       <rPr>
@@ -2444,9 +2188,10 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-Cảm biến lưu lượng không khí nạp
-Cảm biến Ne
-Cảm biến G          
+ Còn gọi là các thông số cơ bản:
+  1. Cảm biến lưu lượng không khí nạp
+  2. Cảm biến Ne
+  3. Cảm biến G
 </t>
     </r>
     <r>
@@ -2457,7 +2202,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B.CÁC CẢM BIẾN HIỆU CHỈNH</t>
+      <t>B. Các cảm biến hiệu chỉnh:</t>
     </r>
     <r>
       <rPr>
@@ -2467,29 +2212,824 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-4.Cảm biến nhiệt độ nước làm mát
-5.Cảm biến nhiệt độ không khí nạp
-6.Cảm biến vị trí bướm ga
-7.Cảm biến vị trí bàn đạp ga
-8.Cảm biến oxy
-9.Cảm biến A/F
-10.Cảm biến kích nổ
-11.Cảm biến tốc độ xe
-12.Cảm biến áp suất nạp</t>
+ 4.  Cảm biến nhiệt độ nước làm mát
+ 5.  Cảm biến nhiệt độ không khí nạp
+ 6.  Cảm biến vị trí bướm ga
+ 7.  Cảm biến vị trí bàn đạp ga
+ 8.  Cảm biến oxy
+ 9.  Cảm biến A/F
+10. Cảm biến kích nổ
+11. Cảm biến tốc độ xe
+12. Cảm biến áp suất nạp</t>
     </r>
   </si>
   <si>
-    <t>Trả lời câu hỏi sau.anh yeu em Đinhk</t>
-  </si>
-  <si>
-    <t>nhu cc</t>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
+  </si>
+  <si>
+    <t>Cảm biến khối lượng không khí nạp kiểu màng nhiệt thế hệ thứ 6 về nguyên lý cơ bản giống thế hệ thứ 5 nhưng tấm film bán dẫn được thay thế bằng màng silicon và nhiều cảm biến nhiệt độ hơn nên lượng không khí nạp được tính toán chính xác hơn.
+ Tín hiệu VG gửi về ECU ở dạng tần số.</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
+  </si>
+  <si>
+    <t>Hợp lực của dòng khí tác dụng lên cánh cảm biến, làm cho nó xoay một góc
+Lúc này contact điều khiển relay bơm xăng sẽ chuyển từ OFF sang ON.
+Vị trí của tấm cảm biến được xác định bởi sự cân bằng của hợp lực dòng khí và lò xo xoắn bố trí ở mạch điện cảm biến.
+Cánh cảm biến thông qua trục truyền động làm cho con trượt dịch chuyển trên điện trở. Từ đó, điện thế kế xác định điện áp VS và gửi về ECU.</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\13.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\14.PNG</t>
+  </si>
+  <si>
+    <t>Cấu tạo gồm có:
+ Chip silicon.
+ Buồng chân không chuẩn.
+ Ống chân không.
+ Lọc không khí.
+ Một IC.</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\15.PNG</t>
+  </si>
+  <si>
+    <t>Khi cánh bướm ga mở nhỏ lượng không khi đi qua ít, độ chân không  trong đường ống nạp lớn và ngược lại.
+Chân không trong đường ống nạp sẽ tác động lên chip Silicon.
+Lúc đó, áp suất trong đường ống nạp thay đổi làm cho chip Silicon biến dạng và làm thay đổi điện trở của chip.
+IC chuyển tín hiệu điện trở thành tín hiệu điện áp gửi về ECU.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bài 1: Cảm Biến Lưu Lượng Không Khí Nạp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cảm biến lượng không khí nạp được sử dụng trên ô tô để kiểm tra khối lượng không khí nạp thực tế vào động cơ. Khi không khí nạp vào đạt 14,7kg thì ECU điều khiển lượng nhiên liệu phun là 1kg (A/F=14,7/1).</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\16.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I. Bộ đo gió kiểu dây nhiệt (Hot Wire)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Được bố trí sau lọc gió, một phần lượng không khí nạp từ lọc gió được đưa vào vùng kiểm tra. 
+Trong vùng kiểm tra người ta bố trí một dây nhiệt bằng platin (có trị số nhiệt điện trở dương) cùng với nhiệt điện trở kiểm tra nhiệt độ của không khí (có trị số nhiệt điện trở âm) trong một mạch cầu có đặc điểm VB = VA để kiểm tra khối lượng không khí nạp. 
+Trong bộ đo gió người ta tích hợp một cảm biến nhiệt độ không khí nạp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Bộ đo gió kiểu màng nhiệt (Hot Film)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Phần chính của cảm biến là một tấm film mỏng bán dẫn, trên đó người ta đặt hai cảm biến nhiệt độ ở phía trên và phía dưới và một bộ sấy.
+ Phần trên tấm film được làm kín, phần dưới tiếp xúc với dòng khí nạp.
+ Khi có không khí nạp vào động cơ, phần dưới tấm film được làm mát nên có dự chênh lệch nhiệt độ.
+ Độ chênh lệch nhiệt độ được chuyển thành tín hiệu điện áp gửi về ECU.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>III. Bộ đo gió Karman siêu âm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Khi không có dòng khí nạp, thời gian truyền sóng T từ bộ phát sóng siêu âm đi đến bộ tiếp nhận là cố định.
+ Khi có không khí từ lọc gió qua bộ hướng dòng khí nạp có dạng hình tổ ong, tiếp tục chạm vào trụ tạo xoáy sẽ tạo ra các dòng xoáy Karman cùng và ngược chiều kim đồng hồ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các dòng xoáy cùng chiều kim đồng hồ đi qua giữa bộ phát sóng và bộ tiếp nhận sẽ tạo ra thời gian truyền sóng T1 nhanh hơn T.
+  Các dòng xoáy ngược chiều kim đồng hồ đi qua giữa bộ phát sóng và bộ tiếp nhận sẽ tạo ra thời gian truyền sóng T2 chậm hơn T.
+ Các tín hiệu này sẽ được chuyển thành tín hiệu xung vuông và gửi đến ECU để xác định lượng không khí nạp.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong bộ đo gió có bố trí cảm biến áp suất môi trường và cảm biến nhiệt độ không khí nạp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IV. Bộ đo gió Karman quang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cấu trúc gồm
+ Một trụ tạo xoáy đặt ở giữa.
+  Một tấm màng mỏng bằng kim loại gọi là tấm gương.
+  Phía trên là bộ quang học gồm một led và một transistor quang.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dòng xoáy Karman tác động vào bề mặt dưới của gương làm cho gương dao động.
+ Transistor sẽ ON khi nhận sự phản xạ ánh sang từ LED qua gương.
+ Sự ON và OFF của transistor quang tạo ra các xung điện có tần số f.
+ Từ đó ECU xác định lượng không khí nạp vào động cơ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong bộ đo gió có bố trí cảm biến áp suất môi trường và cảm biến nhiệt độ không khí nạp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V. Bộ đo gió van trượt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cấu trúc gồm
+ Một cánh cảm biến đặt trên đường di chuyển của không khí.
+  Một cánh cân bằng giúp ổn định chuyển động và giới hạn góc mở   tối đa của cánh cảm biến.
+  Một con trượt và điện thế kế.
+   Contact điều khiển relay bơm xăng.
+  Vít điều chỉnh hỗn hợp cầm chừng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VI. Cảm biến chân không (MAP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+MAP Sensor có hai kiểu:
+Tín hiệu đầu ra kiểu tương tự: tín hiệu gửi về ECU dưới dạng điện áp, điện áp của nó tỉ lệ thuận với tải của động cơ.
+Tín hiệu đầu ra kỹ thuật số: được sử dụng rộng rãi ở hãng Ford,  tín hiệu gửi về ECU là kiểu xung vuông ở dạng tần số.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi động cơ hoạt động, không khí làm mát dây nhiệt làm cho điện trở của nó giảm nên điện áp VB gia tăng.
+Khi VB &gt; VA bộ so sánh hoạt động và điều khiển transistor mở cho dòng điện 12V từ relay chính cung cấp cho dây nhiệt.
+Lúc này dây nhiệt được nung nóng làm cho điện trở của nó tăng nên điện áp VB giảm. Khi VB =VA thì transistor đóng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bằng cách đo điện áp tại điểm B, ECU xác định được lượng không khí nạp vào động cơ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sơ đồ nguyên lý</t>
+  </si>
+  <si>
+    <t>Khi rotor đứng yên, từ thông của nam châm vĩnh cửu qua cuộn dây không đổi nên sức điện động sinh ra trong cuộn dây bằng không.
+Khi rotor quay, khe hở từ thay đổi làm từ thông qua cuộn dây cũng thay đổi tạo ra một sức điện động xoay chiều trong cuộn dây, tín hiệu này được gửi về ECU.
+Khi tốc độ trục Delco càng nhanh, sức điện động sinh ra sẽ có biên độ và tần số càng lớn.</t>
+  </si>
+  <si>
+    <t>Khi cho từ thông của một nam châm vĩnh cửu qua vuông góc với phần tử Hall.
+Dưới tác dụng của lực Lorentz làm cho dòng điện bị nhiễu loạn và dẫn đến sự chêch lệch điện áp ở tín hiệu đầu ra. 
+Điện áp này gọi là điện áp Hall, tỉ lệ thuận với vectơ cường độ dòng điện I và vectơ từ trường B.</t>
+  </si>
+  <si>
+    <t>Trên thực tế, cảm biến Hall là một IC Hall sử dụng 2 hoặc 4 phần tử Hall.
+Nguồn điện cấp cho IC Hall qua bộ ổn áp để đảm bảo nguồn cung cấp vào IC Hall là không đổi.
+Từ đó, điện áp đầu ra chỉ phụ thuộc vào từ trường đi qua cảm biến. Do điện áp đầu ra rất nhỏ (30 mV cho 1 Gauss từ trường) nên phải được khuếch đại bằng Opamp.</t>
+  </si>
+  <si>
+    <t>Khi cánh rotor nằm chắn giữa IC Hall và nam châm, không có từ thông đi qua IC Hall, nên điện áp đầu ra bằng không.
+Khi cánh rotor không chắn, từ thông qua IC Hall sinh ra một điện áp ở đầu ra.</t>
+  </si>
+  <si>
+    <t>Khi từ trường qua MRE thay đổi thì điện trở của nó thay đổi, người ta dùng một IC chuyển giá trị điện trở thành điện áp.
+Tín hiệu đầu ra là điện áp xoày chiều hình sin, được IC chuyển thành dạng xung vuông ở mức thấp khoảng 1V và mức cao khoảng 4V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi trục Delco quay làm đĩa cảm biến quay. Sự chuyển động của cảm biến làm cho Transistor quang lúc nhận ánh sáng từ Led lúc không nhận ánh sáng.
+Khi contact máy On led sáng. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I. Cảm biến điện từ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 Bố trí trong bộ chia điện (Delco)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cấu tạo gồm có:
+  Một khung từ.
+  Một đầu khung từ lắp một nam châm vĩnh cửu, đầu còn lại lắp một cuộn dây.
+  Một rotor cảm biến lắp trên trục cảu delco.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Có thiết kế nhỏ gọn hơn kiểu dùng bộ chia điện. Cấu tạo gồm có: 
+ Một rotor cảm biến.
+ Một cảm biến (gồm một cuộn dây và một nam châm).
+ Khi rotor quay khe hở từ thay đổi nên từ thông qua cuộn dây cũng thay  đổi tạo ra một sức điện động xoay chiều gửi về ECU.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Cảm biến Hall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi ta cho dòng điện đi qua một tấm bán dẫn mỏng (Phần tử Hall) và tín hiệu đầu ra vuông góc với phương của dòng điện I (Như hình dưới).
+Khi không có từ trường đi qua phần tử Hall, cường độ dòng điện I phân bố đều và không có điện áp ở tín hiệu đầu ra (V = 0).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 Bố trí trong bộ chia điện (Delco)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cấu tạo gồm có:
+  IC Hall.
+  Nam châm vĩnh cửu.
+  Các cánh của rotor cảm biến G và Ne.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Bố trí trong hệ thống đánh lửa trực tiếp và không bộ chia điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cấu tạo gồm có:  
+  IC có tích hợp MRE. 
+  Một nam châm vĩnh cửu.
+  Một rotor cảm biến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>III. Cảm biến quang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cảm biến này được bố trí trong hệ thống đánh lửa dung bộ chia điện.
+Cấu tạo gồm có: 
++ Hai cặp quang học: hai Led và hai Transistor quang (hoặc hai Diode quang).
++ Một đĩa mỏng kim loại có các rãnh: được lắp trên trục Delco. Bên ngoài đĩa thường có 360 rãnh cho cảm biến Ne, bên trong có 4 rãnh cho cảm biến G, rãnh to nhất để xác định ĐCT piston số 1.
++ Đĩa cảm biến bố trí giữa các cặp quang học, phía trên đĩa bố trí 2 led, phía dưới đĩa bố trí 2 transistor quang hoặc diode quang.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I. Cảm biến nhiệt độ nước làm mát</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cảm biến xác định mật độ của không khí khi nhiệt độ không khí thay đổi, nó kết hợp với bộ đo gió để xác định chính xác khối lượng không khí nạp vào động cơ.
+ Chuẩn làm việc của cảm biến là 20°C. Khi nhiệt độ không khí lớn hơn 20°C, ECU điều khiển giảm lượng nhiên liệu phun và ngược lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Cảm biến nhiệt độ nước làm mát</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cảm biến được bố trí ở đường nước làm mát, nơi cảm nhận nhiệt độ nước là tốt nhất.
+ Chuẩn làm việc của cảm biến là 80°C. Khi nhiệt độ nước dưới 80°C, ECU xem động cơ lạnh.
+ Tín hiệu cảm biến nhiệt độ nước dùng để tăng lượng phun, góc đánh lửa sớm, tốc độ cầm chừng khi động cơ lạnh, điều khiển quạt làm mát, hệ thống tuần hoàn khí thải EGR,…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>III. Cảm biến nhiệt độ nhiên liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Bố trí mạch nhiên liệu vào ở bơm cao áp hoặc bố trí trên đường ống nhiên liệu hồi.
+ Ở động cơ Diesel, do áp suất nhiên liệu trong ống phân phối có thể đạt đến 200Mpa. Do vậy khi nhiệt độ vượt quá 125°C sẽ ảnh hưởng đến vấn đề bôi trơn và làm mát bơm cao áp cũng như các kim phun.
+ Khi nhiệt độ nhiên liệu vượt quá mức qui định, ECU sẽ điều khiển giảm áp suất nhiên liệu trong ống phân phối.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\17.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\16.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\18.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\19.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\20.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\21.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\22.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\23.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\24.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\25.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\26.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\27.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở tốc độ cầm chừng:
+  Tiếp điểm E2 nối tiếp điểm IDL, điện áp tại cực IDL = 0V, 
+  PSW = 5V. ( Tín hiệu IDL còn kết hợp với tín hiệu Ne để cắt nhiên   liệu khi giảm tốc).
+ Ở chế độ tải trung bình: ( Khi bướm ga xoay lớn hơn 8^0)
+   Tiếp điểm E2 tách tiếp điểm IDL, điện áp tại cực IDL = 5V, 
+  PSW = 5V.
+ Ở chế độ đầy tải
+   Tiếp điểm E2 nối tiếp điểm đầy tải PSW, điện áp tại cực 
+IDL = 5V, PSW = 0V. </t>
+  </si>
+  <si>
+    <t>Khi bướm ga mở, thông qua trục bướm ga sẽ làm cho các nam châm xoay theo làm vị trí của chúng thay đổi, mật độ từ thông qua IC Hall cũng thay đổi theo. 
+ Do vậy, tín hiệu VTA và VTA2 thay đổi theo và gửi tín hiệu về ECU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I. Cảm biến vị trí bướm ga kiểu tiếp điểm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Được sử dụng cho động cơ cũ, thông dụng là kiểu hai tiếp điểm 3 cực
+  IDL: Xác định cầm chừng.
+  PSW: Xác định tải lớn.
+  E2: Mass cảm biến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Cảm biến vị trí bướm ga kiểu tuyến tính có tiếp điểm IDL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Từ ECU cấp nguồn 12V cho cảm biến ở cực IDL và 5V ở cực VC
+ Hai con trượt chuyển động trên các điện trở
+    Ở vị trí cầm chừng, con trượt phía trên nối cực IDL và E2, VIDL= 5V
+    Khi bướm ga mở, hai con trượt xoay ngược chiều kim đồng hồ:
+      Con trượt phía trên không còn kết nối cực E2 nên VIDL= 10V.
+       Con trượt phía dưới di chuyển về phía cực VC nên điện áp cực VTA
+          tăng dần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>III. Cảm biến vị trí bướm ga kiểu tuyến tính không có tiếp điểm IDL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Ở kiểu này cực IDL được bỏ đi.
+ ECU xác định các chế độ tải qua cực VTA, ở tốc độ cầm chừng điện áp  cực VTA = 0,45 – 0,65V.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IV.   Cảm biến vị trí bướm ga kiểu hai cảm biến</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Các động cơ sử dụng cảm biến bàn đạp ga, để tăng độ tin cậy người ta dùng hai cảm biến bướm ga.
+ Hai cảm biến này có đặc tính khác nhau, mục đích để ECU nhận biết sự làm việc bất thường của cảm biến bằng cách so sánh đặc tính của các cảm biến này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V. Cảm biến vị trí bướm ga kiểu phần tử Hall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cấu tạo gồm có một IC Hall và một nam châm quay quanh nó.
+ Ưu điểm là có tuổi thọ và độ tin cậy cao.
+ Điện áp đi ra từ  IC Hall phụ thuộc mật độ và chiều từ trường đi qua nó.  
+ Khi mật độ từ thông đi qua IC Hall càng lớn thì điện áp phát ra sẽ càng  cao.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I. Cảm biến bàn đạp ga kiểu tuyến tính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Cảm biến bàn đạp ga kiểu tuyến tính thì thường được bố trí ở trên thân bướm ga hoặc trên bàn đạp ga.
+ Khác với cảm biến bướm ga, cảm biến bàn đạp ga sử dụng 2 nguồn 5V riêng biệt, nhưng nguyên lý tương tự cảm biến vị trí bướm ga kiểu tuyến tính.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>II. Cảm biến bàn đạp ga kiểu phần tử Hall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Nguyên lý dựa và hiệu ứng Hall. 
+ Trong cảm biến bố trí hai IC Hall cố định, 2 nguồn cung cấp 5V VCPA và  VCP2. 
+ Khi đạp ga qua trục truyền động làm cho các nam châm quay xung quanh  hai IC Hall, từ thông thay đổi, tín hiệu điện áp VPA và VPA2 sẽ thay đổi  và tín hiệu này sẽ được gửi về ECU để xác định góc mở bàn đạp ga.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2576,6 +3116,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2645,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2711,6 +3266,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3028,11 +3584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35AC48-28AE-47CF-8E11-1A48B47FC0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3080,21 +3636,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>540</v>
+        <v>686</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>687</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3121,18 +3677,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>540</v>
+        <v>688</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>706</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3159,18 +3715,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>540</v>
+        <v>689</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>708</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3197,7 +3753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -3208,31 +3764,31 @@
         <v>690</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>770</v>
+        <v>716</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>536</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>758</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>772</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3245,26 +3801,26 @@
       <c r="C6" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>771</v>
+      <c r="D6" s="37" t="s">
+        <v>717</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>539</v>
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>758</v>
+        <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>14</v>
@@ -3273,7 +3829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -3283,26 +3839,26 @@
       <c r="C7" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>535</v>
+      <c r="D7" s="19" t="s">
+        <v>709</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>541</v>
+        <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>758</v>
+        <v>14</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>14</v>
@@ -3311,18 +3867,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>540</v>
+        <v>694</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>693</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3349,7 +3905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -3357,10 +3913,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>542</v>
+        <v>695</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>710</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3387,7 +3943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3395,25 +3951,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>535</v>
+        <v>696</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>711</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>760</v>
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>761</v>
+        <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>762</v>
+        <v>14</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>543</v>
+        <v>14</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>14</v>
@@ -3425,18 +3981,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>540</v>
+        <v>697</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>712</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -3463,7 +4019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -3471,10 +4027,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>545</v>
+        <v>698</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>713</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -3495,7 +4051,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>440</v>
@@ -3504,7 +4060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -3512,31 +4068,31 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>545</v>
+        <v>699</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>714</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>546</v>
+        <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>440</v>
@@ -3545,7 +4101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -3553,31 +4109,31 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>545</v>
+        <v>701</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>700</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>548</v>
+        <v>14</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>440</v>
@@ -3586,7 +4142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -3594,31 +4150,31 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>545</v>
+        <v>702</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>715</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>547</v>
+        <v>14</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>440</v>
@@ -3627,7 +4183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>32</v>
       </c>
@@ -3635,31 +4191,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>549</v>
+        <v>704</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>703</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>440</v>
@@ -3668,7 +4224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>33</v>
       </c>
@@ -3676,10 +4232,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>551</v>
+        <v>707</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>705</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -3700,7 +4256,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>440</v>
@@ -3717,16 +4273,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>694</v>
+        <v>633</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>763</v>
+        <v>678</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>426</v>
@@ -3741,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>440</v>
@@ -3761,7 +4317,7 @@
         <v>534</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -3796,10 +4352,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>696</v>
+        <v>634</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -3837,7 +4393,7 @@
         <v>534</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -3872,10 +4428,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>697</v>
+        <v>635</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -3910,10 +4466,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="D23" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -3948,7 +4504,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>699</v>
+        <v>637</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>535</v>
@@ -3957,16 +4513,16 @@
         <v>14</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>14</v>
@@ -3986,7 +4542,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>699</v>
+        <v>637</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>535</v>
@@ -3995,16 +4551,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>12</v>
@@ -4024,7 +4580,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>699</v>
+        <v>637</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>535</v>
@@ -4033,16 +4589,16 @@
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -4062,31 +4618,31 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{9E6D6BAD-5379-4C1E-A0F4-3B9B212E1618}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A73D93D0-31EC-4158-AF62-682BDA857357}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{78FE737C-A29C-47EA-A7B3-5462292D6826}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{864E7F6C-2500-4BD1-A8A6-FDC388559A9D}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{1A448454-DC41-4C04-97BE-48D4F4209186}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{48102DFF-FD83-43B4-81D1-62A751410264}"/>
-    <hyperlink ref="C21" r:id="rId7" display="\\Resources\mach trang.jpg" xr:uid="{8DAC000A-321D-4DD4-B18D-483ACAEBA58F}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{4633BFA2-8A16-4654-8B21-AC214611A68A}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{09978EF0-3AA5-4069-8117-3DFDD030CCA1}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{E10F54D5-EB5A-4990-AE95-C50F1319B9CD}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{7F26520F-4955-485B-94EB-D1E93D909774}"/>
-    <hyperlink ref="C10" r:id="rId12" xr:uid="{5E6F9FD6-40AC-4569-B49D-54B0618F9BB1}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{6DB2CF83-CF3B-4750-9C52-23AFA551A2C8}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{8E09CCAB-D43B-474C-AA23-3485549F9B57}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{336910B8-672A-4304-B560-B501722A3A7D}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{E3AC31A0-900B-4D05-8D3B-607C8B67654E}"/>
-    <hyperlink ref="C16" r:id="rId17" xr:uid="{2D924063-7DDA-4EB8-B536-50CF24198A24}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{D468A255-B9A4-45D6-9C55-23DC450F45FA}"/>
-    <hyperlink ref="C18" r:id="rId19" xr:uid="{4B4A9628-62C0-4A88-AEA4-4F5293C07F34}"/>
-    <hyperlink ref="C20" r:id="rId20" xr:uid="{3E517526-EC62-4789-B112-A75E53886806}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{EBC40491-3C6F-4BE9-A56A-93D7589F9768}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{845C6A17-6F3A-4B0B-96BF-CB5CC99FD7E5}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{B9BCB315-C933-4DAE-953C-074F4A278E03}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{B5AD4DBC-F926-480E-92B0-2C8520C5BF85}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{B54D17F9-E64D-441D-BF64-B109BA7AA0D5}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId2" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C18" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="C24" r:id="rId7"/>
+    <hyperlink ref="C25" r:id="rId8"/>
+    <hyperlink ref="C26" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId10"/>
+    <hyperlink ref="C3" r:id="rId11"/>
+    <hyperlink ref="C4" r:id="rId12"/>
+    <hyperlink ref="C5" r:id="rId13"/>
+    <hyperlink ref="C6" r:id="rId14"/>
+    <hyperlink ref="C7" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="C9" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="C12" r:id="rId20"/>
+    <hyperlink ref="C13" r:id="rId21"/>
+    <hyperlink ref="C14" r:id="rId22"/>
+    <hyperlink ref="C15" r:id="rId23"/>
+    <hyperlink ref="C16" r:id="rId24"/>
+    <hyperlink ref="C17" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
@@ -4094,7 +4650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC4164-0D3A-4957-8DCA-EEBF119874AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +5048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -4525,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -4558,7 +5114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -4825,7 +5381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>79</v>
       </c>
@@ -5232,30 +5788,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{B7131BC5-FB8C-4D4F-AD42-BEF7884B467D}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{4FB84E52-AD88-428E-BFE3-B78EC5CA613B}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{863A783F-2A72-47DB-A36D-492C7379E5A6}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{1F913B25-D5CB-438B-A8FB-F728BF5021DD}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{FDAC8BB6-B641-4208-B8DF-02C8F0910643}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{504F866A-8916-4082-A4C5-D3168E4C1FF4}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{5142FEA1-0D7E-4F75-99ED-1D27F243E4D4}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{16E05817-FBA0-44DD-9273-5EE86180090E}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{F439659E-065D-4DE1-AE55-6AFE860C08D3}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{9FE0ECAD-B335-4EE8-A452-F1289833F1BE}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{0E389C14-5CA9-4AFC-82E3-722AB1B9497F}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{099807CC-89B9-4B7B-975F-F4AEE9D9491D}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{85A30DCC-1037-4E36-AB38-A1942C81412F}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{7DBBBFF1-5230-4F87-AD9D-F768629E141F}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{1CFF36CC-960F-4ECF-B7F4-2B8904FC2A93}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{2D1AA79A-2B13-4D8F-BF7F-D8EAC7A4A228}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{69D61C4A-426D-4DC3-B2FE-56958396727D}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{9E71EB25-3BD0-45A8-AF1D-4492796E9390}"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{F4C64A32-E75C-4768-BB8E-B6346AFDFC15}"/>
-    <hyperlink ref="C30" r:id="rId20" xr:uid="{5096F54D-111A-41F2-9582-0C232319CBE2}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{48F7176E-292F-4311-A8CD-C565DEB5515B}"/>
-    <hyperlink ref="C32" r:id="rId22" xr:uid="{2D8697AF-E3B8-4E69-B166-E7992C69410A}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{9CD828B0-49A6-4EDC-B46E-99FD69468E77}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{664C4C80-8881-4D87-A1D6-7EA615FC7290}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
+    <hyperlink ref="C30" r:id="rId20"/>
+    <hyperlink ref="C31" r:id="rId21"/>
+    <hyperlink ref="C32" r:id="rId22"/>
+    <hyperlink ref="C33" r:id="rId23"/>
+    <hyperlink ref="C2" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -5263,7 +5819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC63461-BDB8-4207-94FF-50AC58B886E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5626,7 +6182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="235.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -5821,7 +6377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>34</v>
       </c>
@@ -5963,30 +6519,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B3D50D8C-7826-450E-98FB-4CC8B53E7F8A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CC83E07E-CA22-419E-AB7D-F040DE6EB090}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0C92C491-8053-451C-90EE-CFAD0ACAF234}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{F5030EA9-28A4-4243-A980-99957C717031}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{FA387A05-AB52-49A4-8D81-2A5D56B4FFD0}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{CA923593-237B-4B82-86B6-95D85DD9ACA5}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{4BE07B08-62A8-4E28-86D4-903DD2612919}"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{AB5B21B4-3D35-4843-80EA-F00566533E4F}"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{3F4C1B57-88F2-491F-8904-52AAC2D2A963}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{3A18F67E-8767-45CA-AF40-84666CB1CDED}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{F2B75665-7DFD-46EF-AF61-B1A481D17FA5}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{7BE7B273-EAB1-41FD-8F01-AA294160855A}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{3A7F3764-BB91-4F3F-BF2B-B905E932220D}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{3AE57BE0-74F2-40F3-B734-F57753D9F7E4}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{BDC5A0D5-5BF1-473D-9282-E65C892B44C2}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{E0C5F0CA-0FB2-46B1-ACC1-7887909FE67C}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{FC53BC60-82CB-4AFC-96CA-FB8F89F1B2B0}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD1192-C9AF-4EF2-B194-DFA20D74E9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6616,7 +7172,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
@@ -6752,24 +7308,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{E6405A66-00CB-4816-BE07-D66FF85F8B38}"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{B1DF6B7C-8B95-4CB0-8DD8-AE53FD256904}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{62A5E0A2-158D-4FE4-9E12-23A04F04330E}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{41A0BEA7-A3FA-4C95-80BA-3B7BE158887D}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{AB59F4F0-7BBA-45E7-84DE-E5CCBEB50348}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{5E225F15-BA83-48D5-9EBD-B86D3A40BBFD}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{8CF33EC8-F2BA-4FDE-B73A-8D5BD6B16D85}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{41B3B5E9-D3C3-4222-BA7C-A2A3271F3958}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{94CAFF04-00EA-4118-BAB5-C99A38E876F7}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{8B489888-7B11-4CB8-AE8F-7ED43C610A77}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{2F6CADA1-F276-4990-9C2B-ED281BA21E81}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{C50D792D-49B2-4905-83FB-9DA7EBF000BA}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{C0995EF2-8A66-40EE-8315-98789A2E7321}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{2AB2A280-8B06-4440-A930-EA2D2EC14D82}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{8B9F0F65-F2A1-450B-9C39-35FF2FEE7522}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{292B042A-4F7F-4162-A42E-B10857E96D92}"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{EDF4B910-E659-42A0-B83C-4FC4799EFFA1}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{06B5E751-B541-492C-ACCB-5F59F5411ADF}"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B23" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -6777,7 +7333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E788451F-840A-4DC8-BC98-46209958401E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7451,17 +8007,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{02D03DBE-2B7E-4956-85E9-8DCB6F8CD8FA}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{F835938A-B0C7-4FD3-8BB5-5AD14F60A5C3}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{9D1159F0-24E5-4C7A-9BD4-1EDA207A3492}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{DB09DD12-8498-4DF3-8E4B-6D83470A6C42}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{84251520-ED46-43B9-9735-73B1C09E1BB7}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{06E73434-E018-4E19-A9EB-A21866F3B74D}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{9E72A236-5C86-4EED-9E0C-9BCB2255A8AA}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{3DB89C1B-CF45-4C26-A5AB-1A39BD5A6E62}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{9DB9D4CD-420E-45F5-9B92-7D103C194B3D}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{4137CEDB-DAE0-4E71-8641-4A02781796AB}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{4A600835-AC12-422F-BC79-099B03FD83C2}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -7469,7 +8025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF33A04-5E96-4C6E-A3F7-62EF4A67CE13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7834,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>12</v>
       </c>
@@ -7975,24 +8531,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{ECE88239-6FAA-46F5-A527-354527315551}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{9C68EF68-BE9D-4557-A615-48A73F3A34FB}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{2D5E0AD8-C0FF-4B3B-8D78-8E3BFC311735}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{E4DCD819-8551-45D4-8A91-CACBC7394D5D}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{6829B3D3-9E73-49F2-91DA-2C4D86D242C5}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{4A92E804-6FFE-484E-8434-0184B063CCE0}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{3443CC0A-AD20-4245-A2DF-31D23BF8A6F6}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{AAE98899-61D2-42F4-B95C-13D0335B40A9}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{33FA191F-1978-400F-AC30-84AEB98F32D6}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{39F8FA31-12AB-4AC7-B37C-70B9D6B11A03}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{BF455984-E6BA-4BA6-AAC0-9B980E08C918}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE044C-454F-46CA-AC07-C2ED4834CF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8197,7 +8753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -8229,7 +8785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -8813,30 +9369,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8FC914EC-FEE2-49E3-8F1D-44609D5179BB}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{013BA329-AB10-444C-B1A2-249CE5C4924B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{FF0058C1-01A4-4ACE-BE43-60851E6119E1}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{DC66E639-C9BF-49D5-A1B5-71AAAAAEF486}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{4FFB31EB-A870-4E6D-9B6D-0D2B8D899AF7}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{D442D02E-C679-4791-9052-26A97AB3A1D9}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{6E2A93B1-FF81-43FC-BC2A-354BEEE0EF09}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{289A4381-26B2-4A2E-828C-C2B4A1993B52}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{708315E6-8585-4770-A326-F3DB46187165}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{D6B84CBD-9CD8-412D-9AD8-1EABE824B25C}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{FA6E76DA-F176-47BF-807D-AC5982CF3185}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{6525B7D8-EE05-43F9-9D20-0FEF6195995C}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{12BC4C52-E451-4E79-A09D-878390F9989C}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{BC0EB649-AA9E-46B9-9BBC-C897244D75AD}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{225843CB-DB6D-47DA-8771-EA678ECDC2C1}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{EA49E2C3-BFA4-4A97-9956-5326A5A73C55}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{A0044814-B4AF-4CF3-8C6B-EF871D4F4459}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{0DB6B63F-A2C6-4A78-A312-016740A855F3}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{492EF637-5D51-4B9C-985D-B226421D1225}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{4ACC14E0-B361-4331-BB81-5CD0BCAB83FF}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{C4C145BA-E36E-4BB3-BCC5-1A16204BBF91}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{CDD951C8-F801-400D-91B3-DE0F2ED80974}"/>
-    <hyperlink ref="B21" r:id="rId23" xr:uid="{6BDDA343-8A97-4DB5-8292-697F531C50EA}"/>
-    <hyperlink ref="B18" r:id="rId24" xr:uid="{17764B08-4852-4C73-ACEE-613CB94BFC6F}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B21" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -8844,18 +9400,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6785B5-4FDA-44BB-9BF0-EBFA842085CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.109375" style="2"/>
     <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.109375" style="2"/>
+    <col min="4" max="4" width="80.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -8897,18 +9454,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>540</v>
+        <v>734</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>724</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -8935,7 +9492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -8943,25 +9500,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>739</v>
+        <v>733</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>718</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>564</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>565</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>567</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -8973,7 +9530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -8981,28 +9538,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D4" t="s">
-        <v>737</v>
+        <v>735</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>725</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>564</v>
+        <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>565</v>
+        <v>14</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>567</v>
+        <v>14</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
@@ -9011,7 +9568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -9019,28 +9576,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>738</v>
+        <v>736</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>726</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>564</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>565</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>567</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
@@ -9049,7 +9606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -9057,25 +9614,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>568</v>
+        <v>737</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>719</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>14</v>
@@ -9087,7 +9644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -9095,25 +9652,25 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>569</v>
+        <v>738</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>720</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>14</v>
@@ -9125,7 +9682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -9133,28 +9690,28 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>570</v>
+        <v>739</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>727</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>14</v>
@@ -9163,7 +9720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -9171,25 +9728,25 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>571</v>
+        <v>740</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>721</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -9201,7 +9758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -9209,28 +9766,28 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>573</v>
+        <v>741</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>728</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>14</v>
@@ -9239,7 +9796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -9247,28 +9804,28 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>574</v>
+        <v>742</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>722</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>14</v>
@@ -9277,7 +9834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -9285,40 +9842,40 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>575</v>
+        <v>743</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>729</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>576</v>
+        <v>14</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>577</v>
+        <v>14</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>578</v>
+        <v>14</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>579</v>
+        <v>14</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -9326,34 +9883,34 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>582</v>
+        <v>744</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>723</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>576</v>
+        <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>577</v>
+        <v>14</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>578</v>
+        <v>14</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>579</v>
+        <v>14</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -9367,40 +9924,40 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>709</v>
+        <v>638</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="359.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -9408,10 +9965,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>709</v>
+        <v>638</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -9446,36 +10003,40 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{46A28B89-8654-4A1D-8DE5-69798BB7FF3E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4029EE4D-7CD8-40E8-8CEE-E290DCE6481C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{C39C80C4-0C64-41EF-BD64-DD29AA412996}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0930C6A2-6CC2-46B6-BEB1-656458DF29BE}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{27ACCB97-DFAC-4136-AC4C-79C60DD895B9}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{569C85E2-87D5-497C-9D9B-3A8ED440F84E}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{A3C4604D-386C-4DBC-AD0A-10270CB8B498}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{BB9C182F-3B1F-4F0F-90AF-3B8128FABE36}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{B6DEB08C-A721-45CC-A1D4-053605EB9E0B}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{B3364ECF-3F0E-44FF-A638-5BBED8AFA680}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{5773A0EF-A242-4A11-BA2D-F1AEE4A4B7BC}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{8B810BC0-83E7-400A-8A20-E490D6C36534}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{284B0643-56DF-4DF0-B371-A8FEAA850235}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{D508686D-C3B8-4724-A416-27143CB04CF8}"/>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="C11" r:id="rId12"/>
+    <hyperlink ref="C12" r:id="rId13"/>
+    <hyperlink ref="C13" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDCF00C-17CF-4829-B849-DE6BB8DE9756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="153.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9513,7 +10074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9521,10 +10082,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="D2" t="s">
-        <v>686</v>
+        <v>754</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>730</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9548,7 +10109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9556,34 +10117,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>586</v>
+        <v>755</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>731</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>587</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>588</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>589</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>590</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -9591,25 +10152,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>591</v>
+        <v>756</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>732</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>592</v>
+        <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>588</v>
+        <v>14</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>589</v>
+        <v>14</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>590</v>
+        <v>14</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -9618,7 +10179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="373.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -9626,10 +10187,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>712</v>
+        <v>639</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9661,22 +10222,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>713</v>
+        <v>640</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>336</v>
@@ -9688,7 +10249,7 @@
         <v>323</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9702,7 +10263,7 @@
         <v>534</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -9734,10 +10295,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>714</v>
+        <v>641</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -9769,10 +10330,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>714</v>
+        <v>641</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -9804,10 +10365,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -9831,7 +10392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="400.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -9839,10 +10400,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -9874,7 +10435,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>716</v>
+        <v>643</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>535</v>
@@ -9883,16 +10444,16 @@
         <v>14</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>364</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>12</v>
@@ -9901,7 +10462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -9909,10 +10470,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>717</v>
+        <v>644</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -9936,7 +10497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -9944,10 +10505,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>718</v>
+        <v>645</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -9971,7 +10532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -9979,10 +10540,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>718</v>
+        <v>645</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -10014,16 +10575,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>719</v>
+        <v>646</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>360</v>
@@ -10049,7 +10610,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>719</v>
+        <v>646</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>535</v>
@@ -10058,7 +10619,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>365</v>
@@ -10067,7 +10628,7 @@
         <v>364</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>13</v>
@@ -10076,7 +10637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="290.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>34</v>
       </c>
@@ -10084,10 +10645,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>720</v>
+        <v>647</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>13</v>
@@ -10119,10 +10680,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>720</v>
+        <v>647</v>
       </c>
       <c r="D19" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -10154,34 +10715,34 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>721</v>
+        <v>648</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>374</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10192,41 +10753,44 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{E6414710-A471-4DDE-A32D-8640CE775135}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{9EDA8240-8CEC-4E08-8066-F1B5BFE83D5F}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{8F6551B1-9A0D-427E-9BB2-FD811C87E228}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{190B1D2F-143D-4A29-9919-3059964799D4}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{2E75FE29-0EE5-453D-84D8-08807F1AF228}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{631CF268-D105-42AF-ABA0-08BC996771CC}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{2A93D39D-21A9-45BA-908E-0FDF4FB5D806}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A80C15B7-BA2E-40E9-A161-A57D1673ED9B}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{DF956684-DBAB-4CAE-86AE-843C891E7C41}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{53487324-5864-4D09-B58A-B029941B4A00}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{59115C7E-EBDA-493A-80F0-7D923D927DE1}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{9750E422-FED2-4C1F-A8F1-0205B5589054}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{C6D28DA5-C968-460E-9191-6B8A1066A0E2}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{4BE55F8B-EA0B-4E71-B227-935103AAE101}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{14C9B074-0634-41C4-93F3-36431659CA7F}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{B25FF368-4595-4770-A5A1-3D443821630C}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{C9670F7B-7263-48A7-9DF1-99ECC4E928FF}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{8735C512-3E4D-47AE-B577-2D7C0E679634}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{0F6E4314-480B-44E7-BAF3-F19B06075790}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C2" r:id="rId17"/>
+    <hyperlink ref="C3" r:id="rId18"/>
+    <hyperlink ref="C4" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB97F7B-D7CD-4A13-875D-B88ECFBFF6F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10264,18 +10828,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D2" t="s">
-        <v>688</v>
+      <c r="C2" s="4"/>
+      <c r="D2" s="32" t="s">
+        <v>747</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10299,18 +10861,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>621</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="19" t="s">
+        <v>745</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10334,88 +10894,82 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="193.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>535</v>
+      <c r="C4" s="4"/>
+      <c r="D4" s="19" t="s">
+        <v>748</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>622</v>
+        <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>623</v>
+        <v>14</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>624</v>
+        <v>14</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>625</v>
+        <v>14</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>535</v>
+      <c r="C5" s="4"/>
+      <c r="D5" s="19" t="s">
+        <v>749</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>626</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>627</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>628</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>629</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>723</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="19" t="s">
-        <v>630</v>
+        <v>750</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -10439,24 +10993,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="111" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>631</v>
+      <c r="C7" s="4"/>
+      <c r="D7" s="19" t="s">
+        <v>751</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>14</v>
@@ -10471,42 +11023,40 @@
         <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>724</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="19" t="s">
-        <v>633</v>
+        <v>746</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>634</v>
+        <v>14</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>635</v>
+        <v>14</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>636</v>
+        <v>14</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>637</v>
+        <v>14</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>632</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10517,7 +11067,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>535</v>
@@ -10526,16 +11076,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="G9" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>741</v>
+        <v>661</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>742</v>
+        <v>662</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -10552,10 +11102,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -10576,13 +11126,13 @@
         <v>14</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -10590,10 +11140,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -10617,7 +11167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -10625,10 +11175,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>764</v>
+        <v>679</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -10649,10 +11199,10 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10663,10 +11213,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>726</v>
+        <v>651</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>765</v>
+        <v>680</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -10687,10 +11237,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="262.8" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -10698,10 +11248,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>727</v>
+        <v>652</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -10722,10 +11272,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -10733,10 +11283,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>728</v>
+        <v>653</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>767</v>
+        <v>682</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -10757,7 +11307,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10771,36 +11321,31 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{A9974E3A-B826-4E5D-AF90-19754117A06A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{3950F5B6-183F-4F17-A99A-E028CEB87683}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{F91E090E-791B-4717-95E6-4FAAD051116A}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{B7D4A534-FB2B-4AAD-94A1-827760990324}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{B12B9496-316D-4DE5-A865-C572F87DFED3}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{8AD97172-D193-475E-9E8C-030495A3FF36}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{4FC694E0-65ED-4A80-93B0-2D5B46132171}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{CD3AE42D-F9AC-4A1A-9CA2-00A731CA7473}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{30F9F714-DF4C-4BA3-A68E-71920436A016}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{16111F94-8477-4397-BDF8-F8C0F285C0FB}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{B5747920-9270-4580-848F-DE245A8209F5}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{E668BF89-B13D-4660-BA33-4E6BEAD354E0}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{000D48D1-AAA0-4ADF-9183-50B234E3AEFF}"/>
-    <hyperlink ref="C4" r:id="rId14" xr:uid="{9115BA55-D7FB-4D46-8C05-6A49A1B317C8}"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C31DE-E19F-459D-8AE3-A2CC0A5AEBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="3" width="12.109375" style="2"/>
+    <col min="4" max="4" width="46.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -10838,18 +11383,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>759</v>
+      <c r="C2" s="4"/>
+      <c r="D2" s="19" t="s">
+        <v>752</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -10873,36 +11416,34 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>643</v>
+      <c r="C3" s="4"/>
+      <c r="D3" s="19" t="s">
+        <v>753</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>644</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>14</v>
@@ -10919,7 +11460,7 @@
         <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -10951,7 +11492,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>731</v>
+        <v>654</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>535</v>
@@ -10960,16 +11501,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>768</v>
+        <v>683</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>646</v>
+        <v>593</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>14</v>
@@ -10989,7 +11530,7 @@
         <v>534</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -11013,7 +11554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -11021,10 +11562,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>647</v>
+        <v>594</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11055,19 +11596,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{1156A829-DD13-4CFC-AB7E-FE842D32AFD9}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{19C9C17A-A1FB-4402-A1E1-ACD23A7291A3}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{50F1A9D6-B17B-496B-B787-BA49AB625236}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{CE5BCD10-F5A4-4EFC-A9C7-1A279D619A62}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{09EDFEC8-D46D-4759-9AA8-8324F326E43F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{51CD5CEF-3A0C-4661-B985-9D127290A965}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA0C3A4-8288-444C-A796-B4D86ABAAD50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11125,7 +11664,7 @@
         <v>534</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -11157,10 +11696,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11192,25 +11731,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -11219,7 +11758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -11227,25 +11766,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -11262,25 +11801,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>735</v>
+        <v>658</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -11289,7 +11828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="235.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="249" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -11297,10 +11836,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>735</v>
+        <v>658</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11332,25 +11871,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>736</v>
+        <v>659</v>
       </c>
       <c r="D8" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -11359,7 +11898,7 @@
         <v>323</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11369,13 +11908,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{6A60C5D1-A878-4E15-86CC-103444D69A0A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{FCAFE05D-9A72-4506-8E4D-B34674449DAF}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0575004A-4F44-4D6F-A0DF-5CDBFB4DF943}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{72DDE6C3-F634-4D6A-9103-59B34CBFA28A}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E04ED3BD-C0F6-4540-9D18-A1C15E6D16FE}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{82C0C1A7-9A6A-4CB1-A2BF-970A69E010C4}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{0CE3D72F-8C8E-41FF-BD06-F2266CB6EB61}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -11383,7 +11922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04D04CF-0143-4DC2-A053-CFD366C61BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11438,10 +11977,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
       <c r="D2" t="s">
-        <v>684</v>
+        <v>631</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -11473,7 +12012,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>745</v>
+        <v>665</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>535</v>
@@ -11482,16 +12021,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>13</v>
@@ -11511,7 +12050,7 @@
         <v>534</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -11543,25 +12082,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>745</v>
+        <v>665</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>667</v>
+        <v>614</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>12</v>
@@ -11578,16 +12117,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>746</v>
+        <v>666</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>360</v>
@@ -11613,16 +12152,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>746</v>
+        <v>666</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>360</v>
@@ -11648,16 +12187,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>746</v>
+        <v>666</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>360</v>
@@ -11683,22 +12222,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>747</v>
+        <v>667</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>674</v>
+        <v>621</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>277</v>
@@ -11718,22 +12257,22 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>748</v>
+        <v>668</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>277</v>
@@ -11745,7 +12284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -11753,10 +12292,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>748</v>
+        <v>668</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>678</v>
+        <v>625</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -11791,7 +12330,7 @@
         <v>534</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -11823,10 +12362,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>749</v>
+        <v>669</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>743</v>
+        <v>663</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -11858,10 +12397,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>744</v>
+        <v>664</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -11893,16 +12432,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>751</v>
+        <v>671</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>275</v>
@@ -11928,16 +12467,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>752</v>
+        <v>672</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>275</v>
@@ -11963,16 +12502,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>753</v>
+        <v>673</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>681</v>
+        <v>628</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>275</v>
@@ -11998,16 +12537,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>754</v>
+        <v>674</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>275</v>
@@ -12046,23 +12585,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{98CD573B-D7B7-43C8-AF14-A0B49C6A702C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{26384932-9954-4A08-8138-21706CE4C7B0}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg" xr:uid="{9275B34E-DE62-4B48-B737-419ECBC9B606}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3DD6313C-715B-4017-B23E-B6665FE3CAA0}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{ED7D982F-8850-4F23-9ADF-28594623B868}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{03A8033A-5A56-4661-9FB2-E6DA344E2059}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{68C562E5-9CFD-47C4-9CA2-2025F0250515}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A5600139-C854-4F8D-B2B0-A75CF96B62C1}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{A18B2ED4-39D2-48D1-BFB6-F7C7546F45F5}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{711374FD-152A-4B0A-948C-AC8C662AD51B}"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg" xr:uid="{3A51BE8A-72A6-44D4-82FC-9FC95B0DE43F}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{0B79FDAE-0CB8-41D3-9E63-4751782F710D}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{B1C87527-63F1-4F11-A283-CE66762B5D7F}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{A87C4CAC-2407-4FC8-9977-04AD5970BE0C}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{C4D9D2B5-E393-4F1A-B413-7BB8D44F2012}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{A719682B-D2E9-4D01-84EF-4FB653517981}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{4F135334-69F5-4A16-959E-9FDE0D2CEDAF}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -12070,7 +12609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AE61BB-1077-4B97-A889-F57D4B14B7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12940,7 +13479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09884C8B-BF65-4D01-BF68-35CA8A308CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12995,11 +13534,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -13035,10 +13574,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -13074,10 +13613,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -13113,10 +13652,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="37"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -14191,13 +14730,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{D58FF5FF-7F00-4B48-AA6E-FEB943535FBC}"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{E4343437-D184-432E-B428-956379EF8059}"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{EB0A3D00-58C3-42CB-B701-CA924110400D}"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{1C908F78-6A5F-4866-BE79-54052CF91651}"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{1E5440BB-88A7-4B96-8AB8-3960A5056792}"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{BF336401-D205-46A9-9B2D-7ABD3B2AE8D8}"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{3E3CB453-22CE-4B70-A84F-1D61D80CCB43}"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="762">
   <si>
     <t>nActi</t>
   </si>
@@ -3023,6 +3023,21 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +3603,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5048,7 +5063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -5081,7 +5096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -5114,7 +5129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -5381,7 +5396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>79</v>
       </c>
@@ -6182,7 +6197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="235.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -6377,7 +6392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>34</v>
       </c>
@@ -7172,7 +7187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
@@ -8390,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>12</v>
       </c>
@@ -8753,7 +8768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -8785,7 +8800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -9404,7 +9419,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10028,7 +10043,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10781,8 +10796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10835,7 +10850,9 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>757</v>
+      </c>
       <c r="D2" s="32" t="s">
         <v>747</v>
       </c>
@@ -10868,7 +10885,9 @@
       <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>758</v>
+      </c>
       <c r="D3" s="19" t="s">
         <v>745</v>
       </c>
@@ -10901,7 +10920,9 @@
       <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>759</v>
+      </c>
       <c r="D4" s="19" t="s">
         <v>748</v>
       </c>
@@ -10934,7 +10955,9 @@
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>760</v>
+      </c>
       <c r="D5" s="19" t="s">
         <v>749</v>
       </c>
@@ -10967,7 +10990,9 @@
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>760</v>
+      </c>
       <c r="D6" s="19" t="s">
         <v>750</v>
       </c>
@@ -11000,7 +11025,9 @@
       <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>760</v>
+      </c>
       <c r="D7" s="19" t="s">
         <v>751</v>
       </c>
@@ -11033,7 +11060,9 @@
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>760</v>
+      </c>
       <c r="D8" s="19" t="s">
         <v>746</v>
       </c>
@@ -11328,6 +11357,13 @@
     <hyperlink ref="C13" r:id="rId5"/>
     <hyperlink ref="C14" r:id="rId6"/>
     <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="C5" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="C7" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11337,13 +11373,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="57.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
@@ -11390,7 +11427,9 @@
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="D2" s="19" t="s">
         <v>752</v>
       </c>
@@ -11423,7 +11462,9 @@
       <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="D3" s="19" t="s">
         <v>753</v>
       </c>
@@ -11600,6 +11641,8 @@
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11758,7 +11801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -11828,7 +11871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="249" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="235.2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -12284,7 +12327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\DO AN\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8813B6-E6C7-41D8-8391-0B6BB10523AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -3043,7 +3044,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3599,11 +3600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4282,7 +4283,7 @@
     </row>
     <row r="18" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>14</v>
@@ -4633,31 +4634,31 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C21" r:id="rId2" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C18" r:id="rId3"/>
-    <hyperlink ref="C20" r:id="rId4"/>
-    <hyperlink ref="C22" r:id="rId5"/>
-    <hyperlink ref="C23" r:id="rId6"/>
-    <hyperlink ref="C24" r:id="rId7"/>
-    <hyperlink ref="C25" r:id="rId8"/>
-    <hyperlink ref="C26" r:id="rId9"/>
-    <hyperlink ref="C2" r:id="rId10"/>
-    <hyperlink ref="C3" r:id="rId11"/>
-    <hyperlink ref="C4" r:id="rId12"/>
-    <hyperlink ref="C5" r:id="rId13"/>
-    <hyperlink ref="C6" r:id="rId14"/>
-    <hyperlink ref="C7" r:id="rId15"/>
-    <hyperlink ref="C8" r:id="rId16"/>
-    <hyperlink ref="C9" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="C12" r:id="rId20"/>
-    <hyperlink ref="C13" r:id="rId21"/>
-    <hyperlink ref="C14" r:id="rId22"/>
-    <hyperlink ref="C15" r:id="rId23"/>
-    <hyperlink ref="C16" r:id="rId24"/>
-    <hyperlink ref="C17" r:id="rId25"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C21" r:id="rId2" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
@@ -4665,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5803,30 +5804,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C18" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C20" r:id="rId15"/>
-    <hyperlink ref="C21" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
-    <hyperlink ref="C30" r:id="rId20"/>
-    <hyperlink ref="C31" r:id="rId21"/>
-    <hyperlink ref="C32" r:id="rId22"/>
-    <hyperlink ref="C33" r:id="rId23"/>
-    <hyperlink ref="C2" r:id="rId24"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
+    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -5834,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6534,30 +6535,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7323,24 +7324,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -7348,7 +7349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8022,17 +8023,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -8040,7 +8041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8546,24 +8547,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9384,30 +9385,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B21" r:id="rId23"/>
-    <hyperlink ref="B18" r:id="rId24"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
+    <hyperlink ref="B21" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
+    <hyperlink ref="B18" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -9415,11 +9416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9933,7 +9934,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>14</v>
@@ -10018,20 +10019,20 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="C7" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C9" r:id="rId10"/>
-    <hyperlink ref="C10" r:id="rId11"/>
-    <hyperlink ref="C11" r:id="rId12"/>
-    <hyperlink ref="C12" r:id="rId13"/>
-    <hyperlink ref="C13" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -10039,11 +10040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10231,7 +10232,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
@@ -10768,36 +10769,36 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
-    <hyperlink ref="C2" r:id="rId17"/>
-    <hyperlink ref="C3" r:id="rId18"/>
-    <hyperlink ref="C4" r:id="rId19"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C2" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C4" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11090,7 +11091,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>14</v>
@@ -11350,31 +11351,31 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C14" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
-    <hyperlink ref="C2" r:id="rId8"/>
-    <hyperlink ref="C3" r:id="rId9"/>
-    <hyperlink ref="C4" r:id="rId10"/>
-    <hyperlink ref="C5" r:id="rId11"/>
-    <hyperlink ref="C6" r:id="rId12"/>
-    <hyperlink ref="C7" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11492,7 +11493,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>13</v>
@@ -11637,19 +11638,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11951,13 +11952,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -11965,7 +11966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12628,23 +12629,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -12652,7 +12653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13522,7 +13523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14773,13 +14774,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\DO AN\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8813B6-E6C7-41D8-8391-0B6BB10523AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE45821-CBB5-42E5-9C3E-2860BE2EDB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="5" sheetId="13" r:id="rId5"/>
     <sheet name="6" sheetId="15" r:id="rId6"/>
     <sheet name="7" sheetId="14" r:id="rId7"/>
-    <sheet name="4-old" sheetId="2" r:id="rId8"/>
-    <sheet name="3-old" sheetId="1" r:id="rId9"/>
-    <sheet name="5-old" sheetId="7" r:id="rId10"/>
-    <sheet name="6-old" sheetId="8" r:id="rId11"/>
-    <sheet name="7-old" sheetId="4" r:id="rId12"/>
-    <sheet name="8" sheetId="5" r:id="rId13"/>
+    <sheet name="8" sheetId="5" r:id="rId8"/>
+    <sheet name="4-old" sheetId="2" r:id="rId9"/>
+    <sheet name="3-old" sheetId="1" r:id="rId10"/>
+    <sheet name="5-old" sheetId="7" r:id="rId11"/>
+    <sheet name="6-old" sheetId="8" r:id="rId12"/>
+    <sheet name="7-old" sheetId="4" r:id="rId13"/>
     <sheet name="9" sheetId="6" r:id="rId14"/>
     <sheet name="10" sheetId="3" r:id="rId15"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="692">
   <si>
     <t>nActi</t>
   </si>
@@ -623,9 +623,6 @@
 Kiểm tra thông mạch giữa các đèn với mass</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\A N H open.png</t>
-  </si>
-  <si>
     <t>Video minh họa mạch motor khởi động (có công tắc số)</t>
   </si>
   <si>
@@ -1701,45 +1698,6 @@
     <t>Giá trị điện áp đo được là ?</t>
   </si>
   <si>
-    <t>Nối lại dây tại điểm B. Trả lời câu hỏi, sau đó hãy kiểm tra câu trả lời của bạn bằng cách dùng đồng hồ với thang đo OHM.
-LƯU Ý: Hãy ngắt nguồn trước khi sử dụng thang đo OHM</t>
-  </si>
-  <si>
-    <t>Dùng đồng hồ AMPE khi mạch xuất hiện điện trở không mong muốn chỉ giúp ta nhận thấy dòng điện qua mạch bị giảm đi chứ không giúp ta định vị được vị trí bị lỗi.
-Đồng hồ OHM sẽ giúp chúng ta tìm được nhưng nhược điểm của cách đo này là chỉ có thể đo được khi không có dòng điện trong mạch. 
-Còn với đồng hồ VOLT, ta có thể xác định được vị trí lỗi kể cả khi mạch đang hoạt động.</t>
-  </si>
-  <si>
-    <t>Để bảo vệ các linh kiện trong mạch, chúng tôi sử dụng 1 cầu chì ngắt mạch (Circuit Breaker) – nằm ở vị trí linh kiện số 1. Khi mạch xảy ra sự cố, cầu chì sẽ kêu 1 tiếng click báo hiệu cầu chì bị đứt, giúp chúng ta nhận biết mạch đang có sự cố. Nếu chúng ta nhấn công tắc màu trắng, sẽ có 1 tiếng click nữa, báo hiệu rằng cầu chì đã được nối lại.</t>
-  </si>
-  <si>
-    <t>Khi mạch xảy ra lỗi HỞ MẠCH, không có dòng điện chạy trong mạch và mạch không hoạt động. Lúc này, sử dụng loại đồng hồ nào để xác định vị trí lỗi?</t>
-  </si>
-  <si>
-    <t>Đồng hồ VOLT</t>
-  </si>
-  <si>
-    <t>Đồng hồ AMPE</t>
-  </si>
-  <si>
-    <t>Đồng hồ OHM</t>
-  </si>
-  <si>
-    <t>Để xác định vị trí lỗi HỞ MẠCH với điều kiện ngắt nguồn, chúng ta sử dụng loại đồng hồ nào ?</t>
-  </si>
-  <si>
-    <t>Điện áp cao hơn</t>
-  </si>
-  <si>
-    <t>Cường độ dòng điện cao hơn</t>
-  </si>
-  <si>
-    <t>Điện áp thấp hơn</t>
-  </si>
-  <si>
-    <t>Khi mạch hoạt động với lỗi xuất hiện điện trở không mong muốn, nơi xuất hiện lỗi này là nơi có …. so với thông thường.</t>
-  </si>
-  <si>
     <t>Lỗi hiện tại là?</t>
   </si>
   <si>
@@ -1759,13 +1717,6 @@
   </si>
   <si>
     <t>Phần mềm vừa tạo lỗi cho mạch. Đo điện áp và cường độ dòng điện qua mạch để xác định lỗi.</t>
-  </si>
-  <si>
-    <t>Ba loại lỗi vừa được tạo là:
-1. Hở mạch
-2. Xuất hiện điện trở không mong muốn
-3. Nối tắt GND
-Trên mạch, GND được sắp xếp chạy dọc cạnh dưới, đại diện cho sườn xe ngoài thực tế. Nhiều quy trình chẩn đoán, bao gồm cả đo lường điện áp với cực âm của volt kế được kết nối vào sườn xe.</t>
   </si>
   <si>
     <t>Qua 2 trường hợp trên:
@@ -1788,102 +1739,7 @@
     <t>fault 15</t>
   </si>
   <si>
-    <t>Nối tắt cuộn dây relay bằng cách nối dây từ điểm C qua điểm D. Nhấn công tắc #17 để vận hành mạch. Quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>Trường hợp trên, ta dùng nối tắt dây qua tải, làm nhánh mạch màu xanh trở thành một đường dây không tải, tạo nên một dòng điện rất lớn chạy trong mạch làm đứt cầu chì.</t>
-  </si>
-  <si>
-    <t>Tháo dây nối giữa C và D. Nối tắt dây giữa từ điểm G qua điểm H. Nhấn công tắc #17 để vận hành mạch. Quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>Tương tự như trường hợp trước, lần này chúng ta vẫn nối tắt dây qua tải là còi, cũng sẽ tạo nên 1 nhánh mạch không tải và làm đứt cầu chì khi mạch được vận hành.
-Hai trường hợp trên là ví dụ cho việc nối tắt dây SAI. Vì vậy, điều bắt buộc khi dùng phương pháp nối tắt dây là KHÔNG ĐƯỢC nối tắt dây qua tải (điện trở, đèn, motor, ... ).</t>
-  </si>
-  <si>
-    <t>Phương pháp nối tắt dây có thể nối tắt cho trường hợp nào sau đây?</t>
-  </si>
-  <si>
-    <t>Bóng đèn</t>
-  </si>
-  <si>
-    <t>Nối GND cho motor</t>
-  </si>
-  <si>
-    <t>Ngắt dây tại điểm F, giả sử chúng ta không biết rằng tại F bị hở mạch. Nhấn công tắc để vận hành mạch. Quan sát hiện tượng.
-Ta thấy rằng relay vẫn chuyển tiếp điểm khi nhấn công tắc, chứng tỏ nhánh mạch điều khiển không có lỗi.</t>
-  </si>
-  <si>
-    <t>Nối tắt dây từ điểm G về điểm A. Quan sát hiện tượng.
-Ta thấy rằng còi kêu khi được nối trực tiếp với nguồn, có nghĩa nhánh mạch từ điểm G về GND không có lỗi.</t>
-  </si>
-  <si>
-    <t>Lần lượt nối tắt dây tại B - E, E - F, F - G, và nhấn công tắc để vận hành mạch và quan sát hiện tượng.
-Kết quả cho thấy rằng, nối tắt dây tại B - E và E - F, còi vẫn sẽ không hoạt động, chứng tỏ lỗi không nằm ở 2 đoạn này. Còn khi nối tắt dây tại F - G, còi hoạt động, có nghĩa là trên đoạn dây F - G xuất hiện hở mạch. Đây là phương pháp giúp chúng ta xác định được vị trí hở mạch khi mạch vẫn được nối nguồn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nối lại dây tại điểm F. Nhấn công tắc để mạch hoạt động và đo điện áp rơi trên còi. </t>
-  </si>
-  <si>
-    <t>Giá trị điện áp là?</t>
-  </si>
-  <si>
-    <t>Trong điều kiện kết nối kém (các đầu kết nối bám bụi hoặc bị oxy hoá, … ), đại lượng nào trong mạch sẽ tăng lên ?</t>
-  </si>
-  <si>
-    <t>Cường độ dòng điện</t>
-  </si>
-  <si>
-    <t>Khi mạch có những vị trí bị kết nối kém, rất khó để xác định được lỗi khi không có đồng hồ VOM. 
-Đấu mạch như hình vẽ để tạo một điện trở không mong muốn cho còi. Nhấn công tắc để vận hành mạch và đo điện áp rơi tại còi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điện áp rơi trên còi lúc này đã giảm, vì vậy nên còi phát ra tiếng nhỏ hơn. Nguyên nhân sự mất điện áp trên là vì điện trở không mong muốn đã tiêu thụ một phần điện áp. </t>
-  </si>
-  <si>
-    <t>Phần mềm đã tạo 1 lỗi xuất hiện điện trở không mong muốn cho mạch. Vận hành mạch để đo điện áp tại các điểm B, E, F, G, H để xác định vị trí xảy ra lỗi.</t>
-  </si>
-  <si>
-    <t>Vị trí xảy ra lỗi là ?</t>
-  </si>
-  <si>
-    <t>Giữa hai điểm E và F</t>
-  </si>
-  <si>
-    <t>Giữa hai điểm G và H</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>fault 22</t>
-  </si>
-  <si>
     <t>Khi kiểm tra bô bin đánh lửa hay các dây dẫn cao áp, chúng ta chỉ nên kiểm tra với đồng hồ thang đo OHM khi đã ngắt nguồn. Vì sao?</t>
-  </si>
-  <si>
-    <t>Gạt công tắc để vận hành mạch. Quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>fault 25</t>
-  </si>
-  <si>
-    <t>Cầu chì ngắt đã bị đứt.
-Phần mềm vừa tạo ra một lỗi phổ biến trên thực tế đó chính là lỗi ngắn mạch nối đất. 
-Có thể dùng đồng hồ thang đo OHM để xác định vị trí lỗi. Ngoài ra, chúng ta có thể dùng khả năng của cầu chì ngắt để kiểm tra mạch.</t>
-  </si>
-  <si>
-    <t>Với cùng 1 điện áp đặt vào đèn hậu và đèn phanh, nhưng đèn phanh sáng rõ hơn đèn hậu. Lí do có sự khác biệt này ?</t>
-  </si>
-  <si>
-    <t>Công suất của đèn hậu cao hơn</t>
-  </si>
-  <si>
-    <t>Tạo lỗi cho mạch bằng cách ngắt dây nối tại điểm P như ảnh.
-Đổi công tắc đèn đầu về vị trí TẮT, bật công tắc đèn phanh. Quan sát hiện tượng và đo điện áp trên mỗi đèn.</t>
   </si>
   <si>
     <t>Công tắc gài số ứng với công tắc số 8 trên mạch với điểm J là gài số P, điểm K gài số N, vị trí chính giữa của công tắc ứng với các tay số không thể khởi động máy đề.</t>
@@ -2001,24 +1857,6 @@
     <t>Mô hình thực tập mô phỏng mạch đèn báo rẽ phía bên trái của xe. Nút nhấn số 2 tượng trưng cho bộ chớp (Flasher) trên xe.</t>
   </si>
   <si>
-    <t>Tạo lỗi nối tắt GND bằng cách nối thêm một dây từ điểm C về GND như hình vẽ. Lúc này, các tải phía sau điểm C sẽ được bỏ qua. Vì vậy, không có dòng điện đi từ D về GND, nhưng dòng điện từ C về GND sẽ tăng. Khi xảy ra lỗi này trong mạch, cầu chì trong mạch sẽ dễ bị cháy vì dòng điện tăng quá mức giới hạn.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti19.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti21.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti22.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti24.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti12.PNG</t>
   </si>
   <si>
@@ -2028,51 +1866,9 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti5.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti13.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti15.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti17.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti19.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti6.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti13.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti14.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti7.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti3.PNG</t>
   </si>
   <si>
@@ -2083,9 +1879,6 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti8.PNG</t>
-  </si>
-  <si>
-    <t>Đèn phanh có điện trở cao hơn</t>
   </si>
   <si>
     <t>Kiểm tra đồng hồ thang đo OHM không cần ngắt nguồn.</t>
@@ -2138,28 +1931,6 @@
   <si>
     <t>Giả sử dây nối tại D không bị ngắt. Dựa vào hiện tượng mạch vừa quan sát, hãy suy luận và dùng đồng hồ thang đo OHM để xác định vị trí lỗi.
 CHÚ Ý: Dùng đồng hồ thang đo OHM phải ngắt nguồn.</t>
-  </si>
-  <si>
-    <t>Dựa vào những giá trị điện trở đo được, bạn hãy xác định vị trí xảy ra hở mạch?</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi ngắn mạch nối đất. Gạt công tắc để vận hành mạch. Nhấn “OK” để tiếp tục.
-Nếu cầu chì ngắt bị đứt, nhấn công tắc trên cầu chì để nối lại.</t>
-  </si>
-  <si>
-    <t>Ngắt dây nối tại điểm F. BẬT/TẮT công tắc để kiểm tra mạch. Cầu chì ngắt bị đứt, có nghĩa rằng lỗi ngắn mạch nối đất nằm trước điểm F. Nhấn "OK" để tiếp tục</t>
-  </si>
-  <si>
-    <t>Nhấn nút trên cầu chì ngắt để nối lại cầu chì. Nối lại dây tại điểm F, ngắt dây nối tại điểm E. BẬT/TẮT công tắc để kiểm tra mạch.
-Cầu chì vẫn bị đứt, có nghĩa ngắn mạch nối đất nằm trước điểm E.
-Nhấn OK để tiếp tục.</t>
-  </si>
-  <si>
-    <t>Nhấn nút trên cầu chì ngắt để nối lại cầu chì. Nối lại dây tại điểm E, ngắt dây nối tại điểm C. BẬT/TẮT công tắc để kiểm tra mạch.
-Cầu chì không có hiện tượng, có nghĩa rằng lỗi ngắn mạch nối đất nằm ở giữa điểm C và D (bên trong công tắc số 10).</t>
-  </si>
-  <si>
-    <t>Đèn hậu có điện trở cao hơn</t>
   </si>
   <si>
     <t>Đáp án D</t>
@@ -3216,7 +2987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3271,7 +3042,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3601,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3622,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3652,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>684</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
@@ -3663,10 +3433,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3701,10 +3471,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>706</v>
+        <v>636</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3739,10 +3509,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>689</v>
+        <v>619</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>708</v>
+        <v>638</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3777,10 +3547,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>716</v>
+        <v>646</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3804,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>685</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3815,10 +3585,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>717</v>
+        <v>621</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>647</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -3853,10 +3623,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>692</v>
+        <v>622</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>709</v>
+        <v>639</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -3891,10 +3661,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>694</v>
+        <v>624</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3929,10 +3699,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>695</v>
+        <v>625</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3967,10 +3737,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>696</v>
+        <v>626</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>711</v>
+        <v>641</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -4005,10 +3775,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -4043,10 +3813,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>698</v>
+        <v>628</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>713</v>
+        <v>643</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -4070,7 +3840,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -4084,10 +3854,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>714</v>
+        <v>644</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -4111,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -4125,10 +3895,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>701</v>
+        <v>631</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -4152,7 +3922,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
@@ -4166,10 +3936,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>702</v>
+        <v>632</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>715</v>
+        <v>645</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -4193,7 +3963,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>14</v>
@@ -4207,10 +3977,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>703</v>
+        <v>633</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -4234,7 +4004,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>14</v>
@@ -4248,10 +4018,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>705</v>
+        <v>635</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -4275,397 +4045,1308 @@
         <v>14</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="D23" t="s">
-        <v>541</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C21" r:id="rId2" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="30.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="288" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -4684,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -4722,10 +5403,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -4757,25 +5438,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -4792,25 +5473,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>261</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>262</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -4827,25 +5508,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -4862,25 +5543,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -4897,10 +5578,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -4932,10 +5613,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>270</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -4967,10 +5648,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -5002,10 +5683,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -5037,10 +5718,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -5070,25 +5751,25 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -5103,25 +5784,25 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -5136,25 +5817,25 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
@@ -5169,10 +5850,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -5202,10 +5883,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -5235,10 +5916,10 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -5268,34 +5949,34 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="H18" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>291</v>
-      </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5304,10 +5985,10 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -5337,10 +6018,10 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -5370,10 +6051,10 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -5403,10 +6084,10 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -5436,10 +6117,10 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -5469,10 +6150,10 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>13</v>
@@ -5502,10 +6183,10 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>13</v>
@@ -5531,29 +6212,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="H26" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -5564,14 +6245,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>13</v>
@@ -5597,14 +6278,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>13</v>
@@ -5630,14 +6311,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>13</v>
@@ -5663,14 +6344,14 @@
     </row>
     <row r="30" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
@@ -5691,61 +6372,61 @@
         <v>14</v>
       </c>
       <c r="K30" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D31" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>319</v>
-      </c>
       <c r="J31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D32" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>100</v>
@@ -5754,25 +6435,25 @@
         <v>101</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
@@ -5834,7 +6515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -5885,10 +6566,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -5917,10 +6598,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -5949,25 +6630,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>328</v>
-      </c>
       <c r="F4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>14</v>
@@ -5981,25 +6662,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>327</v>
-      </c>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>332</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>13</v>
@@ -6013,25 +6694,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>327</v>
-      </c>
       <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>335</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>336</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>14</v>
@@ -6045,10 +6726,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>13</v>
@@ -6075,22 +6756,22 @@
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>340</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>341</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>107</v>
@@ -6107,25 +6788,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>338</v>
-      </c>
       <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>344</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>345</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>14</v>
@@ -6139,25 +6820,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>350</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>12</v>
@@ -6171,25 +6852,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>354</v>
-      </c>
       <c r="G11" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>350</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>14</v>
@@ -6203,10 +6884,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>13</v>
@@ -6227,10 +6908,10 @@
         <v>14</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6238,10 +6919,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>13</v>
@@ -6270,25 +6951,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>360</v>
-      </c>
       <c r="G14" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>12</v>
@@ -6302,25 +6983,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>365</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>13</v>
@@ -6334,10 +7015,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>13</v>
@@ -6366,10 +7047,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>368</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>13</v>
@@ -6398,10 +7079,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>370</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -6430,10 +7111,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>13</v>
@@ -6454,10 +7135,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6465,34 +7146,34 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>375</v>
-      </c>
       <c r="I20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6500,25 +7181,25 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>381</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>382</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>14</v>
@@ -6557,7 +7238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -6736,7 +7417,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>96</v>
@@ -6768,7 +7449,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>97</v>
@@ -6800,7 +7481,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>98</v>
@@ -6902,7 +7583,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>111</v>
@@ -6937,7 +7618,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>112</v>
@@ -6969,7 +7650,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
@@ -7001,7 +7682,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>118</v>
@@ -7033,7 +7714,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>119</v>
@@ -7097,7 +7778,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
@@ -7129,7 +7810,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
@@ -7161,7 +7842,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>125</v>
@@ -7193,7 +7874,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>127</v>
@@ -7225,7 +7906,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>128</v>
@@ -7289,7 +7970,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>131</v>
@@ -7348,698 +8029,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="15" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="276.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K16"/>
@@ -8091,10 +8080,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -8123,25 +8112,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="I3" s="22">
         <v>0</v>
@@ -8155,25 +8144,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
@@ -8187,7 +8176,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>98</v>
@@ -8196,16 +8185,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="I5" s="22">
         <v>0</v>
@@ -8219,7 +8208,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>98</v>
@@ -8228,16 +8217,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -8251,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>98</v>
@@ -8260,16 +8249,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -8283,16 +8272,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="22">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>100</v>
@@ -8301,7 +8290,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I8" s="22">
         <v>1</v>
@@ -8315,7 +8304,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>98</v>
@@ -8324,16 +8313,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -8347,16 +8336,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>100</v>
@@ -8365,7 +8354,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -8379,10 +8368,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -8411,34 +8400,34 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -8446,10 +8435,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -8478,34 +8467,34 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>239</v>
-      </c>
       <c r="H14" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -8513,10 +8502,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
@@ -9417,10 +9406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9436,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9478,10 +9467,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>734</v>
+        <v>664</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>724</v>
+        <v>654</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9516,10 +9505,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>733</v>
+        <v>663</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>718</v>
+        <v>648</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -9554,10 +9543,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>725</v>
+        <v>665</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>655</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -9592,10 +9581,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>736</v>
+        <v>666</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>726</v>
+        <v>656</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9630,10 +9619,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>719</v>
+        <v>649</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -9668,10 +9657,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>738</v>
+        <v>668</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -9706,10 +9695,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>739</v>
+        <v>669</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>727</v>
+        <v>657</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -9744,10 +9733,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>721</v>
+        <v>651</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -9782,10 +9771,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>741</v>
+        <v>671</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>728</v>
+        <v>658</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -9820,10 +9809,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>742</v>
+        <v>672</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>722</v>
+        <v>652</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -9858,10 +9847,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>743</v>
+        <v>673</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>729</v>
+        <v>659</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -9885,7 +9874,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>676</v>
+        <v>612</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -9899,10 +9888,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>744</v>
+        <v>674</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>723</v>
+        <v>653</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -9926,7 +9915,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -9940,111 +9929,67 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10060,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -10098,10 +10043,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>730</v>
+        <v>684</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>660</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10133,10 +10078,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>731</v>
+        <v>661</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10168,10 +10113,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>732</v>
+        <v>662</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -10203,10 +10148,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -10238,556 +10183,44 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D19" t="s">
-        <v>580</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C2" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C4" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10795,10 +10228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10809,12 +10242,12 @@
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -10844,7 +10277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10852,10 +10285,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>747</v>
+        <v>687</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>677</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10879,7 +10312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="152.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -10887,10 +10320,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>758</v>
+        <v>688</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>745</v>
+        <v>675</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10914,7 +10347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -10922,10 +10355,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>759</v>
+        <v>689</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>748</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -10942,14 +10375,14 @@
       <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -10957,10 +10390,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>749</v>
+        <v>679</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -10984,7 +10417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -10992,10 +10425,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>750</v>
+        <v>680</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -11019,7 +10452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="111" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -11027,10 +10460,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>751</v>
+        <v>681</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11054,7 +10487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -11062,10 +10495,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -11089,7 +10522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
@@ -11097,25 +10530,25 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="G9" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -11124,247 +10557,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="31"/>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11372,10 +10578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11391,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -11429,10 +10635,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>752</v>
+        <v>682</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -11464,10 +10670,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11495,155 +10701,21 @@
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4"/>
+      <c r="D4"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11653,7 +10725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11667,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -11705,10 +10777,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -11740,10 +10812,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11775,25 +10847,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>553</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -11810,25 +10882,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>601</v>
+        <v>594</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>558</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -11845,25 +10917,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>602</v>
+        <v>559</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -11880,10 +10952,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>677</v>
+        <v>613</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11915,34 +10987,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>604</v>
+        <v>561</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11969,7 +11041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -11983,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -12021,10 +11093,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>588</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -12056,25 +11128,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>609</v>
+        <v>566</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>13</v>
@@ -12087,14 +11159,14 @@
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -12126,25 +11198,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>12</v>
@@ -12161,25 +11233,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -12196,25 +11268,25 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H7" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>12</v>
@@ -12231,25 +11303,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>12</v>
@@ -12266,25 +11338,25 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>622</v>
+        <v>537</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>579</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>13</v>
@@ -12301,25 +11373,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>668</v>
+        <v>604</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>622</v>
+        <v>537</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>579</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>14</v>
@@ -12336,10 +11408,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>668</v>
+        <v>604</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -12367,14 +11439,14 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -12406,10 +11478,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -12441,10 +11513,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>664</v>
+        <v>600</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -12476,25 +11548,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>671</v>
+        <v>607</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>626</v>
+        <v>583</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G15" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>12</v>
@@ -12511,25 +11583,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>672</v>
+        <v>608</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G16" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>12</v>
@@ -12546,25 +11618,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>673</v>
+        <v>609</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G17" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>12</v>
@@ -12573,7 +11645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="34" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -12581,25 +11653,25 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>629</v>
+        <v>586</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G18" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
@@ -12613,8 +11685,8 @@
         <v>28</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -12624,7 +11696,7 @@
       <c r="K19" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="31"/>
+      <c r="C29" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12653,6 +11725,695 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="15" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="276.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -12703,10 +12464,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -12735,25 +12496,25 @@
         <v>16</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -12767,25 +12528,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -12799,10 +12560,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -12831,25 +12592,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -12863,10 +12624,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>482</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>483</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -12895,7 +12656,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -12904,16 +12665,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
@@ -12927,10 +12688,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -12959,7 +12720,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
@@ -12968,16 +12729,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>13</v>
@@ -12991,7 +12752,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
@@ -13000,16 +12761,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
@@ -13023,7 +12784,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -13055,7 +12816,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
@@ -13064,16 +12825,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
@@ -13087,7 +12848,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
@@ -13119,7 +12880,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -13128,16 +12889,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>13</v>
@@ -13151,10 +12912,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -13183,10 +12944,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -13215,25 +12976,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -13242,7 +13003,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -13250,25 +13011,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>14</v>
@@ -13282,25 +13043,25 @@
         <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>13</v>
@@ -13314,10 +13075,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>516</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>517</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
@@ -13346,10 +13107,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>518</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>519</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>13</v>
@@ -13378,34 +13139,34 @@
         <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -13413,34 +13174,34 @@
         <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -13448,45 +13209,45 @@
         <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>13</v>
@@ -13520,1269 +13281,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="30.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="38"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="38"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="38"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="288" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
 </file>
--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\DO AN\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE45821-CBB5-42E5-9C3E-2860BE2EDB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F494EF8-8F77-45B5-B288-C904DA643884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="685">
   <si>
     <t>nActi</t>
   </si>
@@ -1719,23 +1719,6 @@
     <t>Phần mềm vừa tạo lỗi cho mạch. Đo điện áp và cường độ dòng điện qua mạch để xác định lỗi.</t>
   </si>
   <si>
-    <t>Qua 2 trường hợp trên:
-- Khi có hở mạch trên nhánh mạch điều khiển của relay (cuộn dây relay) mạch sẽ không hoạt động khi nhấn công tắc.
-- Khi có hở mạch trên nhánh mạch tải (còi) tiếp điểm của relay vẫn chuyển vì nhánh mạch này bình thường, nhưng nhánh mạch tải sẽ không hoạt động.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phần mềm vừa tạo lỗi hở mạch. Nhấn giữ công tắc #17 để vận hành mạch, dùng đồng hồ với thang đo VOLT để xác định vị trí lỗi. </t>
-  </si>
-  <si>
-    <t>Vị trí lỗi nằm ở?</t>
-  </si>
-  <si>
-    <t>Cuộn dây relay</t>
-  </si>
-  <si>
-    <t>Công tắc #17</t>
-  </si>
-  <si>
     <t>fault 15</t>
   </si>
   <si>
@@ -1858,12 +1841,6 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti5.PNG</t>
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti6.PNG</t>
@@ -3422,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.6" x14ac:dyDescent="0.3">
@@ -3433,10 +3410,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3471,10 +3448,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3509,10 +3486,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3547,10 +3524,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3574,7 +3551,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3585,10 +3562,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -3623,10 +3600,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -3661,10 +3638,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3699,10 +3676,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3737,10 +3714,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -3775,10 +3752,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -3813,10 +3790,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -3854,10 +3831,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -3895,10 +3872,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -3936,10 +3913,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -3977,10 +3954,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -4018,10 +3995,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -9467,10 +9444,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9505,10 +9482,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -9543,10 +9520,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -9581,10 +9558,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9619,10 +9596,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -9657,10 +9634,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -9695,10 +9672,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -9733,10 +9710,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -9771,10 +9748,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -9809,10 +9786,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -9847,10 +9824,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -9874,7 +9851,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -9888,10 +9865,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -9929,7 +9906,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>544</v>
@@ -9986,10 +9963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10000,7 +9977,7 @@
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10035,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10043,10 +10020,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10070,7 +10047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -10078,10 +10055,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10105,7 +10082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -10113,10 +10090,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -10140,87 +10117,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10285,10 +10215,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10320,10 +10250,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10355,10 +10285,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -10390,10 +10320,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -10425,10 +10355,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -10460,10 +10390,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10495,10 +10425,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -10530,7 +10460,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>534</v>
@@ -10539,16 +10469,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G9" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -10635,10 +10565,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -10670,10 +10600,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10812,10 +10742,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10847,25 +10777,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -10882,25 +10812,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -10917,25 +10847,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -10952,10 +10882,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10987,25 +10917,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -11014,7 +10944,7 @@
         <v>322</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11093,10 +11023,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -11128,7 +11058,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>534</v>
@@ -11137,16 +11067,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>13</v>
@@ -11198,25 +11128,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>12</v>
@@ -11233,16 +11163,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>359</v>
@@ -11268,16 +11198,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>359</v>
@@ -11303,16 +11233,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>359</v>
@@ -11338,10 +11268,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
@@ -11350,10 +11280,10 @@
         <v>537</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>276</v>
@@ -11373,10 +11303,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
@@ -11385,10 +11315,10 @@
         <v>537</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>276</v>
@@ -11408,10 +11338,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -11478,10 +11408,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -11513,10 +11443,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -11548,10 +11478,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
@@ -11583,10 +11513,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
@@ -11618,10 +11548,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>14</v>
@@ -11653,10 +11583,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
@@ -11728,7 +11658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
